--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value111.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value111.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.080343474092656</v>
+        <v>1.688997030258179</v>
       </c>
       <c r="B1">
-        <v>1.934343560857409</v>
+        <v>3.287040233612061</v>
       </c>
       <c r="C1">
-        <v>4.725877468892398</v>
+        <v>1.600455045700073</v>
       </c>
       <c r="D1">
-        <v>2.197165475826481</v>
+        <v>1.324506759643555</v>
       </c>
       <c r="E1">
-        <v>0.9137270472938575</v>
+        <v>1.398847579956055</v>
       </c>
     </row>
   </sheetData>
